--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:46:20+00:00</t>
+    <t>2023-02-18T10:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:13:11+00:00</t>
+    <t>2023-02-18T11:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:17:38+00:00</t>
+    <t>2023-02-18T14:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:27:51+00:00</t>
+    <t>2023-02-21T11:45:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:45:55+00:00</t>
+    <t>2023-02-21T13:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T13:35:57+00:00</t>
+    <t>2023-02-21T14:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:10:21+00:00</t>
+    <t>2023-02-22T13:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T13:02:41+00:00</t>
+    <t>2023-02-22T15:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:15:41+00:00</t>
+    <t>2023-02-22T15:26:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:26:08+00:00</t>
+    <t>2023-02-22T15:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:39:39+00:00</t>
+    <t>2023-02-23T08:27:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:27:18+00:00</t>
+    <t>2023-02-23T13:59:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T13:59:47+00:00</t>
+    <t>2023-02-23T14:48:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T14:48:28+00:00</t>
+    <t>2023-02-24T11:38:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T11:38:09+00:00</t>
+    <t>2023-02-24T14:30:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:30:46+00:00</t>
+    <t>2023-02-27T07:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile is to record the death of a patient observation</t>
+    <t>This profile captures the death outcome for a patient.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:31:33+00:00</t>
+    <t>2023-02-27T08:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:19:52+00:00</t>
+    <t>2023-02-27T11:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:03:37+00:00</t>
+    <t>2023-02-27T11:43:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:43:01+00:00</t>
+    <t>2023-02-28T11:30:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:30:20+00:00</t>
+    <t>2023-03-01T12:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:32:05+00:00</t>
+    <t>2023-03-01T13:09:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:09:29+00:00</t>
+    <t>2023-03-02T06:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:53+00:00</t>
+    <t>2023-03-02T07:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T07:03:01+00:00</t>
+    <t>2023-03-02T10:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -881,6 +881,9 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t xml:space="preserve">obs-7
 </t>
   </si>
@@ -895,6 +898,15 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-cbs/ValueSet/vs-hiv-cause-of-death</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1734,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP52"/>
+  <dimension ref="A1:AP53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1745,7 +1757,7 @@
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1768,7 +1780,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.8125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -4643,16 +4655,14 @@
         <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>272</v>
@@ -4664,7 +4674,7 @@
         <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>104</v>
@@ -4673,29 +4683,31 @@
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>82</v>
       </c>
@@ -4713,22 +4725,22 @@
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4753,13 +4765,11 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -4777,7 +4787,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4786,7 +4796,7 @@
         <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
@@ -4795,38 +4805,38 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>135</v>
+        <v>281</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>82</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
@@ -4841,16 +4851,16 @@
         <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4875,13 +4885,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4899,16 +4909,16 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -4917,38 +4927,38 @@
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>302</v>
+        <v>135</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>304</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -4960,19 +4970,19 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -4997,13 +5007,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>82</v>
+        <v>304</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5021,7 +5031,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5039,27 +5049,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>82</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5082,18 +5092,20 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>191</v>
+        <v>310</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
       </c>
@@ -5117,13 +5129,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>317</v>
+        <v>82</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5141,13 +5153,13 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
@@ -5159,27 +5171,27 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>323</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5205,17 +5217,15 @@
         <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5239,31 +5249,31 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5281,27 +5291,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>82</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5324,18 +5334,20 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>334</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5359,13 +5371,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5383,7 +5395,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5401,27 +5413,27 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5444,16 +5456,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5503,7 +5515,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5521,27 +5533,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5552,7 +5564,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -5564,20 +5576,18 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5625,45 +5635,45 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM32" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>82</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5674,7 +5684,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -5686,16 +5696,20 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5743,19 +5757,19 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>82</v>
+        <v>361</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -5764,10 +5778,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5778,21 +5792,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -5804,17 +5818,15 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>365</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>139</v>
+        <v>366</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -5869,13 +5881,13 @@
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -5887,7 +5899,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5898,14 +5910,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>370</v>
+        <v>137</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5918,26 +5930,24 @@
         <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O35" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -5985,7 +5995,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6009,7 +6019,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>135</v>
+        <v>369</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6020,42 +6030,46 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
@@ -6103,19 +6117,19 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6124,10 +6138,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>379</v>
+        <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>380</v>
+        <v>135</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6138,10 +6152,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6164,13 +6178,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6221,7 +6235,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6230,7 +6244,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6242,7 +6256,7 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>384</v>
@@ -6282,7 +6296,7 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>191</v>
+        <v>379</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>386</v>
@@ -6290,12 +6304,8 @@
       <c r="M38" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>389</v>
-      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6319,13 +6329,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6352,7 +6362,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6361,13 +6371,13 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>303</v>
+        <v>388</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6378,10 +6388,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6392,7 +6402,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6407,16 +6417,16 @@
         <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6441,13 +6451,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>317</v>
+        <v>116</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6465,13 +6475,13 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
@@ -6483,13 +6493,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6500,10 +6510,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6514,7 +6524,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6526,17 +6536,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6561,13 +6573,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6585,13 +6597,13 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
@@ -6603,13 +6615,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>82</v>
+        <v>397</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>406</v>
+        <v>307</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6620,10 +6632,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6646,16 +6658,18 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6703,7 +6717,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6724,7 +6738,7 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>379</v>
+        <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>410</v>
@@ -6752,7 +6766,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -6761,20 +6775,18 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>415</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -6829,7 +6841,7 @@
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
@@ -6844,10 +6856,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6858,10 +6870,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6884,16 +6896,16 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6943,7 +6955,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6964,10 +6976,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -6978,10 +6990,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7004,20 +7016,18 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>352</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="N44" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>428</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7065,7 +7075,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7086,10 +7096,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7100,10 +7110,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7114,7 +7124,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7123,19 +7133,23 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
+        <v>429</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7183,19 +7197,19 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>364</v>
+        <v>428</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7204,10 +7218,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>365</v>
+        <v>434</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7218,21 +7232,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7244,17 +7258,15 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>139</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7309,13 +7321,13 @@
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7327,7 +7339,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7338,14 +7350,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>370</v>
+        <v>137</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7358,26 +7370,24 @@
         <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O47" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7425,7 +7435,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7449,7 +7459,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>135</v>
+        <v>369</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7460,45 +7470,45 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>435</v>
+        <v>375</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>436</v>
+        <v>376</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>437</v>
+        <v>141</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7523,13 +7533,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>317</v>
+        <v>82</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>438</v>
+        <v>82</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>439</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7547,34 +7557,34 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>434</v>
+        <v>377</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>82</v>
@@ -7582,10 +7592,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7593,7 +7603,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>92</v>
@@ -7608,19 +7618,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>273</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>275</v>
+        <v>440</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7645,13 +7655,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>82</v>
+        <v>442</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7669,10 +7679,10 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>92</v>
@@ -7690,16 +7700,16 @@
         <v>444</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
@@ -7727,22 +7737,22 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N50" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="O50" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7767,13 +7777,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7800,7 +7810,7 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>104</v>
@@ -7809,19 +7819,19 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>135</v>
+        <v>281</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>82</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51">
@@ -7833,14 +7843,14 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -7855,16 +7865,16 @@
         <v>191</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>295</v>
+        <v>450</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>296</v>
+        <v>451</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>297</v>
+        <v>452</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7889,13 +7899,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -7919,10 +7929,10 @@
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -7931,31 +7941,31 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>302</v>
+        <v>135</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>304</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7974,19 +7984,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>451</v>
+        <v>299</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>452</v>
+        <v>300</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8011,13 +8021,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>82</v>
+        <v>304</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8035,7 +8045,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8053,18 +8063,140 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="AN52" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AO52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP52" t="s" s="2">
+      <c r="O53" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP53" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T10:01:05+00:00</t>
+    <t>2023-03-02T11:57:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:57:08+00:00</t>
+    <t>2023-03-02T16:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="456">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:08:14+00:00</t>
+    <t>2023-03-03T12:35:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -865,10 +865,6 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
     <t>Actual result</t>
   </si>
   <si>
@@ -879,9 +875,6 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -1408,6 +1401,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -4591,7 +4588,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
@@ -4606,19 +4603,19 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4662,7 +4659,7 @@
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>272</v>
@@ -4674,7 +4671,7 @@
         <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>104</v>
@@ -4683,37 +4680,37 @@
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP24" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>272</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>92</v>
@@ -4731,16 +4728,16 @@
         <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4769,7 +4766,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -4796,7 +4793,7 @@
         <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
@@ -4805,27 +4802,27 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4851,16 +4848,16 @@
         <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4885,14 +4882,14 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
       </c>
@@ -4909,7 +4906,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4918,7 +4915,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -4933,7 +4930,7 @@
         <v>135</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -4944,14 +4941,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4973,16 +4970,16 @@
         <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5007,13 +5004,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5031,7 +5028,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5049,27 +5046,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5092,19 +5089,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5153,7 +5150,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5174,10 +5171,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5188,10 +5185,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5217,13 +5214,13 @@
         <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5249,14 +5246,14 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5273,7 +5270,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5291,27 +5288,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5337,16 +5334,16 @@
         <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5371,13 +5368,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5395,7 +5392,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5416,10 +5413,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5430,10 +5427,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5456,16 +5453,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5515,7 +5512,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5533,27 +5530,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP31" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>345</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5576,16 +5573,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5635,7 +5632,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5653,27 +5650,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5696,19 +5693,19 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5757,7 +5754,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5769,19 +5766,19 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5792,10 +5789,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5818,13 +5815,13 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5875,7 +5872,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5899,7 +5896,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5910,10 +5907,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5942,7 +5939,7 @@
         <v>139</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>141</v>
@@ -5995,7 +5992,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6019,7 +6016,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6030,14 +6027,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6059,10 +6056,10 @@
         <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>141</v>
@@ -6117,7 +6114,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6152,10 +6149,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6178,13 +6175,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6235,7 +6232,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6244,7 +6241,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6256,10 +6253,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6270,10 +6267,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6296,13 +6293,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6353,7 +6350,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6362,7 +6359,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6374,10 +6371,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6388,10 +6385,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6417,16 +6414,16 @@
         <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6454,10 +6451,10 @@
         <v>116</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6475,7 +6472,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6493,13 +6490,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6510,10 +6507,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6539,16 +6536,16 @@
         <v>191</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6573,13 +6570,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6597,7 +6594,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6615,13 +6612,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6632,10 +6629,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6658,17 +6655,17 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6717,7 +6714,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6741,7 +6738,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6752,10 +6749,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6778,13 +6775,13 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6835,7 +6832,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6856,10 +6853,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6870,10 +6867,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6896,16 +6893,16 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6955,7 +6952,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6976,10 +6973,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -6990,10 +6987,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7016,16 +7013,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7075,7 +7072,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7096,10 +7093,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7110,10 +7107,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7136,19 +7133,19 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7197,7 +7194,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7218,10 +7215,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7232,10 +7229,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7258,13 +7255,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7315,7 +7312,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7339,7 +7336,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7350,10 +7347,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7382,7 +7379,7 @@
         <v>139</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>141</v>
@@ -7435,7 +7432,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7459,7 +7456,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7470,14 +7467,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7499,10 +7496,10 @@
         <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>141</v>
@@ -7557,7 +7554,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7592,10 +7589,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7621,13 +7618,13 @@
         <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>205</v>
@@ -7655,13 +7652,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7679,7 +7676,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>92</v>
@@ -7697,7 +7694,7 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>209</v>
@@ -7714,10 +7711,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7740,19 +7737,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>273</v>
+        <v>444</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="O50" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7801,7 +7798,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7819,27 +7816,27 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7865,16 +7862,16 @@
         <v>191</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="O51" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7899,14 +7896,14 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
       </c>
@@ -7923,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7932,7 +7929,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -7947,7 +7944,7 @@
         <v>135</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -7958,14 +7955,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7987,16 +7984,16 @@
         <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8021,13 +8018,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8045,7 +8042,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8063,27 +8060,27 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8109,16 +8106,16 @@
         <v>83</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8167,7 +8164,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8188,10 +8185,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:35:01+00:00</t>
+    <t>2023-03-03T12:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:56:42+00:00</t>
+    <t>2023-03-03T14:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:58:49+00:00</t>
+    <t>2023-03-03T15:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:51:33+00:00</t>
+    <t>2023-03-04T08:23:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:23:50+00:00</t>
+    <t>2023-03-05T11:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T11:45:33+00:00</t>
+    <t>2023-03-06T07:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T07:25:44+00:00</t>
+    <t>2023-03-06T13:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:23:19+00:00</t>
+    <t>2023-03-06T13:58:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:58:50+00:00</t>
+    <t>2023-03-07T12:18:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T12:18:55+00:00</t>
+    <t>2023-03-07T17:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:18:24+00:00</t>
+    <t>2023-03-08T14:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:44:18+00:00</t>
+    <t>2023-03-08T15:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:59:39+00:00</t>
+    <t>2023-03-09T11:23:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-death.xlsx
+++ b/branches/master/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T11:23:43+00:00</t>
+    <t>2023-04-04T11:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
